--- a/story/主线剧情/main/level_st_07-02.xlsx
+++ b/story/主线剧情/main/level_st_07-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="480">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -974,6 +977,482 @@
   </si>
   <si>
     <t xml:space="preserve">私はいつの間にこうなったのだろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown time
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You’re not going to draw the curtains?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The glass has already been broken. Doing that would just be lying to myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  The glass doesn’t matter. Whether Ch’en is safe... does matter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  She’s skilled. Not like her father, or her mother.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Yes, nothing like her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Beneath my feet is already another river of lights. Lungmen has already returned to normal, but they still don’t know what will happen next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Alone, Ch'en Hui-chieh cannot stop this disaster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Rhodes Island is with her. They will find her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  *Sigh*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Witte can no longer hold back the conservatives. For so many years, he has tried to suppress the great lords, but he has not been able to completely defeat them. Only weaken them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  After the Great Rebellion, a harsh blow was dealt to the generals of the various armies and the old nobles behind them. Their status and wealth will be absorbed by the State Council, one by one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But I’m afraid that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Afraid of what?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  What if Witte is lying? What if this whole situation was plotted by Witte and the Emperor? What if the young emperor planned all of this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Our enemies have always lurked in the shadows. But we’ve always had to stand before the brightest spotlight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You are already deeper into the shadows than most others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...It’s not enough. Just like back then. If Kashchey... if he was in this situation, he’d burrow deeper.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But you are not Kashchey. Kashchey would not have been able to make Lungmen what it is today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  It’s just that... if Tal... If Tal really was taught by Kashchey...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  That doctor from Rhodes Island, do you think she’s lying?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I’m not sure. There aren’t many people like that who don’t lie. Rhodes Island is good at hiding itself. They feign weakness before us and will not reveal any secrets.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But, I would rather believe that Kashchey shaped the current Talulah. We can’t afford the terrible consequences of underestimating the enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...Tal...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Because of that, I can’t let Ch'en Hui-chieh do this alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Kashchey... has all the cards in his hand. Even if he is dead, his vision may yet come to pass through his heir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  None of this could be what he wanted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The scout team reported that some of the Infected who left Lungmen were moving in the direction of the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The core city must stop for a period of time, during which they receive these Infected refugees.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Even if Talulah bared her vicious fangs at Ursus, she would not betray Reunion in front of everyone. This is the best opportunity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I will bring the Shadow Guard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  They’ve already done too much for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I promised that I’d never ask them to dirty their hands, only to break that promise again and again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And now, I would ask them to die for Lungmen?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...If so, I will be with them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I won’t allow it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You doing that would play right into Kashchey’s hands. That would not be a win at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...Is it not a stretch to say that everything we’ve done since regaining Lungmen has played into Kashchey’s hands?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  We’ve won before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  It was our victory at first. Even though it was painful, you and I, Edward, and Kojui... Without us, he would’ve wiped out this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I never once regarded this incident as an unfortunate beginning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...I won’t treat Edward’s death as if it was by Kashchey’s hands.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Would you rather treat it as a nightmare?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The nightmare should have finally ended when Kashchey died.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Is he really dead?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Maybe he lives on in Talulah. A qualified successor will allow him to continue his life of chaos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Talulah is too much like him. For someone who had no children, Kashchey truly received the most suitable seed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Even if I can treat Kal'tsit’s words as fabrications, I cannot deny the facts. There is a conspiracy against Lungmen, and it reads too much like Kashchey’s handwriting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I don’t believe it. Tal has never been that kind of person. Why is she doing this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  We have no choice but to believe it. Talulah planned all of this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But if she thinks Lungmen will roll over and die, she will find she is sadly mistaken.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Lungmen will not fall. I won’t let any harm come to Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But, you also cannot stop this war.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...Do you want me to die with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Are you threatening me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Ah, no. That’s not what I meant. It’s just that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No! You can’t!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Only cowards would elevate themselves on the corpses of others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And, without you... I wouldn’t be able to...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Maybe I was a coward before, but not anymore, Fumizuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t let anyone lay a finger on you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I’ll find a place for you to hide. Be it Leithania, or Sargon, or Sami...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You can’t go back to Higashi. I’ll send you to a distant country, to a small, quiet town that nobody knows about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I’ll hide you where nobody can follow you. My brother... no matter how much he hates me, he won’t chase you to the ends of the earth... I know he won’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But, I can’t live like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Do you want me to spend my life alone, Yenwu?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Do you want to torture me with your death for the rest of my life? Don’t you remember why your sister died?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No, no... Fumizuki, I want you to live. I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Wei Yenwu, I told you... I’m fine with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  To die with you would already be the best terrible outcome I can imagine. Or rather, no matter how terrible it is, it’ll be a fine ending for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t say that, Fumizuki...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t be that kind of person. I won’t let you do that either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But you know, you can’t stop me. You’ve never been able to stop me from doing what I want to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Yenwu, you’ve always been frank with me. Sometimes, you won’t tell me anything, when you finally come out with it, I’ll always know that you’re telling me the truth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I don’t want you to die. But I also don’t want Tal to die. I don’t want any of us to die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I miss Tal. I’m always reminded of how much she looks like your sister. But, she has Edward’s eyes, and that temper she had when she was little... I have no idea who she got that from. It’s been so, so many years since I’ve seen her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  We owe all of this to her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...and Hui-chieh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Yes, and Little Ch’en as well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Little Ch’en is gone, and I won’t be able to see her ever again... I’ll never be able to buy her beautiful clothes and comb her hair into a work of art.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  She... She didn’t like traditional attire that much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But, I liked it. How beautiful, how beautiful she will be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...But even if that’s the case, even if we’ve said our final farewell, I hope that Little Ch’en can find someplace else to settle down comfortably. That’s what I hope.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I know you don’t want to rely on Rhodes Island, and I know that you won’t hedge all your bets on them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But I want you to wait for a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  And let them do this, Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  If they fail, then we shall go together. You don’t want to have the blood of your loved ones on your hands ever again, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  If that happens, I will help you take Tal’s life. Then, we will die together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You want her to live as well, don’t you? Is this Lungmen a place that wants all of us to die?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I would rather never see them again. I would rather never see Little Ch’en and Tal again and forget about them... but I also want them to live on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Just like you. Just like you wanted me to make this decision.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki. If things pass the tipping point, you must listen to my arrangements. Our lives... are not indivisible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Of course not, Yenwu. I do not solely exist for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...Everything I’ve done, from beginning to end, has not only been for your sake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You must see what I am fighting for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Don’t dodge the issue anymore. Look at me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I will stick to my decision...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Do you want to cry?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  It’s fine to cry, Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No, Fumizuki. No...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...I’m fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Be honest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are people who simply want to rest and find refuge within a city. Why should they suffer needless death?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t we just want to give them a home? Don’t we want all people like us, who have nowhere to go, to have a warm place to rest?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did I not simply want to build a little city where everyone can live with peace of mind?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who was Lungmen built for, the way it is now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I am no moralist, Fumizuki. But the closer I look, the more I realize that only one death is needed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...My own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...Don’t be like this! You mustn’t!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I will have the Shadow Guard escort you to Sargon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When did Lungmen turn into this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And... when did I become like this?
 </t>
   </si>
   <si>
@@ -1808,13 +2287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,1391 +2303,1772 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>294</v>
+      </c>
+      <c r="D56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>295</v>
+      </c>
+      <c r="D57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s">
+        <v>309</v>
+      </c>
+      <c r="D71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>312</v>
+      </c>
+      <c r="D74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>316</v>
+      </c>
+      <c r="D78" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" t="s">
+        <v>326</v>
+      </c>
+      <c r="D88" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" t="s">
+        <v>327</v>
+      </c>
+      <c r="D89" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" t="s">
+        <v>328</v>
+      </c>
+      <c r="D90" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D98" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>338</v>
+      </c>
+      <c r="D102" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" t="s">
+        <v>339</v>
+      </c>
+      <c r="D103" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s">
+        <v>340</v>
+      </c>
+      <c r="D104" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" t="s">
+        <v>341</v>
+      </c>
+      <c r="D105" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>342</v>
+      </c>
+      <c r="D106" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>343</v>
+      </c>
+      <c r="D107" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>344</v>
+      </c>
+      <c r="D108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" t="s">
+        <v>250</v>
+      </c>
+      <c r="D109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D110" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" t="s">
+        <v>346</v>
+      </c>
+      <c r="D111" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="s">
+        <v>347</v>
+      </c>
+      <c r="D113" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="s">
+        <v>348</v>
+      </c>
+      <c r="D114" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>349</v>
+      </c>
+      <c r="D115" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>350</v>
+      </c>
+      <c r="D116" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>250</v>
+      </c>
+      <c r="D117" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" t="s">
+        <v>351</v>
+      </c>
+      <c r="D118" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" t="s">
+        <v>352</v>
+      </c>
+      <c r="D119" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" t="s">
+        <v>353</v>
+      </c>
+      <c r="D120" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" t="s">
+        <v>354</v>
+      </c>
+      <c r="D121" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" t="s">
+        <v>355</v>
+      </c>
+      <c r="D122" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="s">
+        <v>359</v>
+      </c>
+      <c r="D126" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B127" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>198</v>
-      </c>
-      <c r="C80" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>201</v>
-      </c>
-      <c r="C83" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>202</v>
-      </c>
-      <c r="C84" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>204</v>
-      </c>
-      <c r="C86" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>205</v>
-      </c>
-      <c r="C87" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>209</v>
-      </c>
-      <c r="C91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>210</v>
-      </c>
-      <c r="C92" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" t="s">
-        <v>217</v>
-      </c>
-      <c r="C101" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" t="s">
-        <v>219</v>
-      </c>
-      <c r="C103" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>130</v>
-      </c>
-      <c r="C109" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115" t="s">
-        <v>229</v>
-      </c>
-      <c r="C115" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>130</v>
-      </c>
-      <c r="C117" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" t="s">
-        <v>231</v>
-      </c>
-      <c r="C118" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" t="s">
-        <v>234</v>
-      </c>
-      <c r="C121" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>116</v>
-      </c>
-      <c r="B122" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" t="s">
-        <v>236</v>
-      </c>
-      <c r="C123" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" t="s">
-        <v>237</v>
-      </c>
-      <c r="C124" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" t="s">
-        <v>238</v>
-      </c>
-      <c r="C125" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>120</v>
-      </c>
-      <c r="B126" t="s">
-        <v>239</v>
-      </c>
-      <c r="C126" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>121</v>
-      </c>
-      <c r="B127" t="s">
-        <v>240</v>
-      </c>
       <c r="C127" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="D127" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/story/主线剧情/main/level_st_07-02.xlsx
+++ b/story/主线剧情/main/level_st_07-02.xlsx
@@ -1576,7 +1576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="웨이 옌우"]  정찰팀이 보고해 주더군, 용문을 떠난 감염자 일부가 코어 쪽으로 이동 중이라고.
+    <t xml:space="preserve">[name="웨이 옌우"]  정찰팀이 보고해주더군, 용문을 떠난 감염자 일부가 코어 쪽으로 이동 중이라고.
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="웨이 옌우"]  라이타니엔이든 사르곤이든 사미든…… 어느 곳이든 당신을 숨겨놓겠어.
+    <t xml:space="preserve">[name="웨이 옌우"]  라이타니아든 사르곤이든 사미든…… 어느 곳이든 당신을 숨겨놓겠어.
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="후미즈키"]  웨이 옌우, 누누이 말했잖아요…… 전 괜찮다고.
+    <t xml:space="preserve">[name="후미즈키"]  웨이 옌우, 누누히 말했잖아요…… 전 괜찮다고.
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="후미즈키"]  하지만 아시잖아요, 당신은 절 막을 수 없다는걸. 지금까지 당신은, 단 한 번도 저를 막아낸 적이 없었죠.
+    <t xml:space="preserve">[name="후미즈키"]  하지만 아시잖아요, 당신은 절 막을 수 없다는 걸. 지금까지 당신은, 단 한 번도 저를 막아낸 적이 없었죠.
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="후미즈키"]  ……제가 하는 모든 일이 전부 당신만을 위한 건 아니라고요.
+    <t xml:space="preserve">[name="후미즈키"]  ……제가 하는 모든 일이 전부 당신만을 위한 건 아니라구요.
 </t>
   </si>
   <si>
@@ -1916,7 +1916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="후미즈키"]  ……당신….. 이러지 말아요!
+    <t xml:space="preserve">[name="후미즈키"]  ……당신…… 이러지 말아요!
 </t>
   </si>
   <si>
